--- a/backend/data/synthetic/gstr2b_invoice_link.xlsx
+++ b/backend/data/synthetic/gstr2b_invoice_link.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INVE03987BA</t>
+          <t>INVE9357431</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INV4487703C</t>
+          <t>INV11AF3837</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INV4559F40D</t>
+          <t>INV11C5AF3C</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INVDCB78972</t>
+          <t>INV3099F2D7</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INVEDA6CD0F</t>
+          <t>INV9F03D5DE</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INV9CE96394</t>
+          <t>INV5E11EF55</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INVDB54ABB9</t>
+          <t>INV1844C15B</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INVAE9EC4A1</t>
+          <t>INVB80B0267</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INVF8D249ED</t>
+          <t>INV890B321E</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INV7FC59A4C</t>
+          <t>INVB93C2490</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INVDE6CC234</t>
+          <t>INVF9E9E382</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INV52D9DCFB</t>
+          <t>INV4B30B4A8</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INV102F07D6</t>
+          <t>INV4A553EDB</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INVDDBEAD7F</t>
+          <t>INV1FAC72AD</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INV30C7516F</t>
+          <t>INVB9F923A8</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INV7D9F2BC7</t>
+          <t>INVDF1B080B</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INV666DA123</t>
+          <t>INV7192BD02</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INV8D193FCC</t>
+          <t>INV541E8EA6</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INV86743A80</t>
+          <t>INVA7B6BA21</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INVA87A3D29</t>
+          <t>INV9D08F39E</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INV4EC40460</t>
+          <t>INV6D380779</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INVFDFB9C39</t>
+          <t>INVBCDFE370</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INV0805DFB0</t>
+          <t>INV4528EB7D</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INVE1715D00</t>
+          <t>INV88299BA4</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INVFC7D02D4</t>
+          <t>INVA2458986</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INVB09C88D1</t>
+          <t>INV1445159D</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INV889A3747</t>
+          <t>INVE5FEB54C</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INVF133AFCE</t>
+          <t>INVAC4D2AA4</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INV41BC42F4</t>
+          <t>INVDAF36048</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INVF64CDACD</t>
+          <t>INVFC4C8D51</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>INVD27EA318</t>
+          <t>INVC3FD257E</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INV783F5BA1</t>
+          <t>INVDA9972CC</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INVDA914089</t>
+          <t>INV5C7A8307</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INVBAB49E7D</t>
+          <t>INV3091356C</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INV46EEBD61</t>
+          <t>INV1A152A22</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INVF8088C96</t>
+          <t>INV676E33F1</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INVB05FFC69</t>
+          <t>INV5330B940</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INVF10A4924</t>
+          <t>INVC69B9B49</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>INVC8E436F7</t>
+          <t>INV24F450B0</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>INV769591C9</t>
+          <t>INVA37465BF</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INV073253C1</t>
+          <t>INV24D3DAEE</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>INV6804693E</t>
+          <t>INV8570CD01</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INV759617F9</t>
+          <t>INV2A11C449</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INV3A9A051F</t>
+          <t>INV784AC7C5</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INV971DB56E</t>
+          <t>INV50B9A5F1</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INVC39C0517</t>
+          <t>INV303D389E</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>INV7FD587BC</t>
+          <t>INVFCC07BF9</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INVFE219C5F</t>
+          <t>INVBAD57774</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>INVF132B3A7</t>
+          <t>INVCA8C845F</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INV3259B395</t>
+          <t>INVEA0F2FC8</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INV74C3702D</t>
+          <t>INVE83331F4</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INVD1366A2B</t>
+          <t>INV0B9A4474</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INV9EFA837F</t>
+          <t>INVBA2BFD17</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INV5A6CB3C9</t>
+          <t>INV2F882CBD</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INVB8A982F4</t>
+          <t>INVF1D7AA9C</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>INVCA700BC6</t>
+          <t>INVD12B6A3B</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INV94B0A9C1</t>
+          <t>INVE2614DA5</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INVA2848AD1</t>
+          <t>INVB4E920BE</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INV56F80ECA</t>
+          <t>INVF25FDDA0</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INV506AAD9E</t>
+          <t>INV93086158</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INV719ED5D4</t>
+          <t>INV6FD0D027</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INV610135E7</t>
+          <t>INVEA02BCFE</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INV3F15719B</t>
+          <t>INV43784547</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INV14284552</t>
+          <t>INV6C521D8C</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>INVE79FC21F</t>
+          <t>INVB24C6C8B</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>INVFB72CCB0</t>
+          <t>INV4C187A88</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INVD2B5BAC9</t>
+          <t>INV9C7D3547</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>INV534AC115</t>
+          <t>INVA69D3968</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>INVD92A0FE8</t>
+          <t>INVB71DDFA7</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>INV60436851</t>
+          <t>INVCD4319B9</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INVF39E1BDE</t>
+          <t>INV492CAB81</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>INVCBDA80AB</t>
+          <t>INV0948FD7A</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INVE96F2685</t>
+          <t>INV58B82432</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>INV90AD5A7A</t>
+          <t>INVC5E43E31</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INV4F9B3385</t>
+          <t>INV5283935F</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INVB153E2BB</t>
+          <t>INVFD208E10</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INV9D89B168</t>
+          <t>INVA8522907</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>INVB5CB83DB</t>
+          <t>INV9906F040</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>INV6516A4DB</t>
+          <t>INV01035E50</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>INV9E4B94A0</t>
+          <t>INVA7027326</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>INVDA31F1C8</t>
+          <t>INV00DFD398</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>INVEDC7415B</t>
+          <t>INV4B04172E</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>INVA433EF6B</t>
+          <t>INV1836119D</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>INV046B99EA</t>
+          <t>INV9CFFB547</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>INV0E531393</t>
+          <t>INV2BE8B7B3</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>INV53A8BD63</t>
+          <t>INV7EB5DF42</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>INV2D2EB8C1</t>
+          <t>INVC8FC9EB8</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>INVFC5C6FF2</t>
+          <t>INVBCA166CC</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>INVC231E1B6</t>
+          <t>INV6C86F249</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>INV697ED9E3</t>
+          <t>INV5787AFD4</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>INVC706BA96</t>
+          <t>INV6A5E5EC0</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INV43890D4B</t>
+          <t>INV0CBAAA04</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INV3D5C77E3</t>
+          <t>INV3339A6DA</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INV4577B0A8</t>
+          <t>INV0FE242A0</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INV830146CF</t>
+          <t>INVA6EDA405</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INV01853ADC</t>
+          <t>INVA67A286A</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INV83E0FBF0</t>
+          <t>INV4964501A</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INV4FEC06E1</t>
+          <t>INVD40B70F6</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INV2E455F0A</t>
+          <t>INVA4A67860</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INV0BA359AD</t>
+          <t>INV4D05E18D</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INV9F821279</t>
+          <t>INVAF1C6981</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INV43676608</t>
+          <t>INV520A0C59</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INVECBB36A5</t>
+          <t>INV6B942C2C</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INV0D63C45C</t>
+          <t>INV8C7350CD</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INV4A39B957</t>
+          <t>INV1BEBD399</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INVEE32E681</t>
+          <t>INVE3D66F9D</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INVFF3DA349</t>
+          <t>INV6C964EA2</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INVD6FE1E77</t>
+          <t>INV0B31AF4D</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INVA1D40D74</t>
+          <t>INVBE343CDC</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INVDB6D18A6</t>
+          <t>INVD4FC0F90</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INV8456FE2E</t>
+          <t>INV22960A68</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INV8209D7EC</t>
+          <t>INVC4E1BFF2</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INVB4FE31DC</t>
+          <t>INVD4A3BA0E</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INVED858657</t>
+          <t>INV087CBE69</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INV07E8D301</t>
+          <t>INVE7B234D5</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INVDD85016B</t>
+          <t>INV4D3B72DA</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INVD2FF1874</t>
+          <t>INVEAB66A3E</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INV1C728342</t>
+          <t>INVE0946EE5</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INVFF03897A</t>
+          <t>INVEE8A6048</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INV61711DAF</t>
+          <t>INVC43ABF73</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INV85D6D193</t>
+          <t>INVD569E577</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>INV0B8DCEDE</t>
+          <t>INV1DDDD124</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INV91BB44B9</t>
+          <t>INV48778D5E</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INVC0065DC6</t>
+          <t>INV88F17C92</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INV879A9295</t>
+          <t>INV59DE13BF</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INVC86DE889</t>
+          <t>INV7883334D</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INVF5F4FF14</t>
+          <t>INVDF3A219D</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INVD395B8C7</t>
+          <t>INV866C9D1E</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INVC46B6573</t>
+          <t>INV12D38CC6</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INV059BE927</t>
+          <t>INV5E5AAC0A</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INVC3F13752</t>
+          <t>INVC04BFE73</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INV329096C1</t>
+          <t>INV69F0A31E</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INV10396DFD</t>
+          <t>INV4B83C716</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>INVE9C303B1</t>
+          <t>INV36280C21</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>INV50CB53C4</t>
+          <t>INVE525A301</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>INVDB382E93</t>
+          <t>INV5719F0D2</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>INVD5A9CC14</t>
+          <t>INVE0765244</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>INVE4580CA6</t>
+          <t>INV30461B3C</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>INVC93A03C5</t>
+          <t>INVECCE5EE2</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>INV60B81899</t>
+          <t>INV4534A3F1</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>INV8050FAEF</t>
+          <t>INV9F8A82BF</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>INVA8AE13AB</t>
+          <t>INV2A80BE18</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>INV6940FF52</t>
+          <t>INVB5810932</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>INV57EC50C6</t>
+          <t>INV1A73BA63</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>INV321DAF79</t>
+          <t>INVC09ACF9F</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>INV688F24E1</t>
+          <t>INV96A58AB4</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>INVF5971C9B</t>
+          <t>INV47A0949C</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INVB712A5D3</t>
+          <t>INVBFB21DA7</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>INVB969F909</t>
+          <t>INVB0B3A7D2</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>INV14EB523E</t>
+          <t>INVA1FC7B0D</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>INV791F086B</t>
+          <t>INVD77DB8D3</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>INVB5E1E942</t>
+          <t>INVE9E47CE0</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>INVACC04CB4</t>
+          <t>INV085F93ED</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>INV0D18C17E</t>
+          <t>INV8DF75BE5</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>INV792CD2C5</t>
+          <t>INVDC89B747</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>INV9EFCCE8C</t>
+          <t>INV1E94459D</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>INV3412BED8</t>
+          <t>INV52DB2B91</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>INV0B1B9600</t>
+          <t>INVF9A4E15A</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>INV3ACB51E2</t>
+          <t>INVAD400CAB</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>INV0910CE13</t>
+          <t>INV256CDB79</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>INVDFAA3FA2</t>
+          <t>INVC906DB60</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>INV4F29FF60</t>
+          <t>INV1C9ED50E</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>INVD6C16709</t>
+          <t>INV2E4D6F50</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INV22F41196</t>
+          <t>INVC2711B39</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>INVAE01AF45</t>
+          <t>INVD0B0D41D</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>INV20708692</t>
+          <t>INVFA33C008</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>INV2F2E2DEF</t>
+          <t>INVE441DD57</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>INV4CBBC7FB</t>
+          <t>INVCB97F0A3</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>INV4F164E46</t>
+          <t>INVD70A4E41</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>INV05A4B20A</t>
+          <t>INV8052B713</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>INV814030AC</t>
+          <t>INV37AE7FCB</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>INV73F7B1FF</t>
+          <t>INV0E61038F</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>INV63977702</t>
+          <t>INV548D6C22</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>INV3E693CDB</t>
+          <t>INV713B261B</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>INV87237886</t>
+          <t>INV47F7EDAB</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>INV7C733DE0</t>
+          <t>INV411C6FA3</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INV29A7DC04</t>
+          <t>INV416E679C</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INV8AFB3521</t>
+          <t>INV707A8450</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INV4CDBF97D</t>
+          <t>INV8A846167</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INV89A54EE4</t>
+          <t>INV0CA2777C</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>INV638758AC</t>
+          <t>INVE942BE2C</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>INV3343DC1B</t>
+          <t>INV5F8D6C5F</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>INV167FEEF0</t>
+          <t>INV37ED6BB6</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>INVD947DF1B</t>
+          <t>INV2B6CF1CE</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>INVFD770B7C</t>
+          <t>INV434DDFA1</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>INVCFC1A1E9</t>
+          <t>INV62328F60</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>INVB4B2541D</t>
+          <t>INV9D55E9DA</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>INV2CC9CC71</t>
+          <t>INV4F80CEB4</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>INV8DBCC6DF</t>
+          <t>INV25A962AD</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>INV210FC655</t>
+          <t>INV4EDE81D3</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>INV9D92CE4A</t>
+          <t>INVBB3377CA</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>INV71E6165B</t>
+          <t>INVED29D8BC</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>INV3A5D82CB</t>
+          <t>INVDA7C8873</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>INVF8CEA453</t>
+          <t>INVBFF36052</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>INV24051AE0</t>
+          <t>INV07B910B9</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>INV7FF32C38</t>
+          <t>INV1D274937</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>INV2EEDE408</t>
+          <t>INVDF8377EE</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>INV7180026D</t>
+          <t>INV977E4EA7</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>INVD2C4EB9E</t>
+          <t>INVD9BA6F73</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>INVE8CF8FD3</t>
+          <t>INVE87754E6</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>INV76BE08CB</t>
+          <t>INVB23D3078</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>INV4E18BE97</t>
+          <t>INVCFAFFBED</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>INV9E8F1F01</t>
+          <t>INV1B3EBDA8</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>INV6C8FC433</t>
+          <t>INV5A2E6483</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>INVBB37E32A</t>
+          <t>INV9D81460E</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>INV9F5CABE7</t>
+          <t>INV12F98495</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>INV9C55C292</t>
+          <t>INV4EDF65D3</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>INV976465CE</t>
+          <t>INV2BC1853A</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>INV7E3E97F0</t>
+          <t>INVFB8241CA</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>INVE4C53615</t>
+          <t>INV88430339</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>INV14501191</t>
+          <t>INV486B07A8</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>INV6DF5E708</t>
+          <t>INVA250BF2B</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>INVA7A69821</t>
+          <t>INVA1976A69</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>INV4E80767D</t>
+          <t>INV854AA505</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>INVE54EC8FD</t>
+          <t>INV223C65D2</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>INVF6948E7D</t>
+          <t>INV83EE4FAE</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>INV7B0DED02</t>
+          <t>INV5D64E7A1</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>INVCA322178</t>
+          <t>INV883057B9</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>INV85556821</t>
+          <t>INVE3211EAB</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>INV909167DC</t>
+          <t>INV98770A66</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>INV9D7F017E</t>
+          <t>INV74C626A5</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>INV982AA58D</t>
+          <t>INV1DB24C5A</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>INV6D922109</t>
+          <t>INV29557F75</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>INV449A051B</t>
+          <t>INV8A50E323</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>INV7A3E9497</t>
+          <t>INV48BF15BA</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>INV216833E9</t>
+          <t>INVBDECE6B5</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>INV82F01178</t>
+          <t>INV1BE20B20</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>INV4791FB2D</t>
+          <t>INV4744ABF9</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>INV53088D3E</t>
+          <t>INVC9136D87</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>INV9333F32C</t>
+          <t>INV93ED30D0</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>INV7452D0A5</t>
+          <t>INV8FF3C8C0</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>INV0FDEA184</t>
+          <t>INV4A2049F6</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>INV544A782C</t>
+          <t>INV2C0E57FB</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>INV8353BABE</t>
+          <t>INVE29B0BED</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>INV3AF02CD1</t>
+          <t>INVF162B20D</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>INV9A931C65</t>
+          <t>INV7EBF1B68</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>INVF0EF113E</t>
+          <t>INV23E3C321</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>INVA117E82F</t>
+          <t>INVCEF9CBD1</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>INVC363B306</t>
+          <t>INVCCF757B5</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>INV14152AF0</t>
+          <t>INVEB1F9745</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>INV28F6AA8B</t>
+          <t>INV8A7B6B2C</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>INV99B917E6</t>
+          <t>INVB2B8D2BE</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>INVCC1AEFBF</t>
+          <t>INV8B9AE27D</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>INV4C14B113</t>
+          <t>INV24042139</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>INVF0A1F106</t>
+          <t>INVC5190F7E</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>INV63D5D9A0</t>
+          <t>INVE8E45E97</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>INVA19B1317</t>
+          <t>INVA3E01DD3</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>INV8E842674</t>
+          <t>INV94028003</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>INVE5663CF1</t>
+          <t>INVB550AB90</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>INV746E25E5</t>
+          <t>INV2F221338</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>INV0AD2E243</t>
+          <t>INVECC907AB</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>INV2D7E7AE7</t>
+          <t>INV7045A992</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>INV7A641BAB</t>
+          <t>INVDF82085D</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>INV8C83986B</t>
+          <t>INV3B4D51D8</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>INV1795A735</t>
+          <t>INVA2DBD06A</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>INV6D63EBE3</t>
+          <t>INVEA9A6176</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>INV0E0638BF</t>
+          <t>INVC144ACE8</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>INV5298E3D3</t>
+          <t>INV5BBDC99D</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>INVAEBE2EF3</t>
+          <t>INVB8FD3D21</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>INVFC36B12A</t>
+          <t>INVEA1A3A4B</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>INV0C337D70</t>
+          <t>INVA2194C5C</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>INVFEDFE03F</t>
+          <t>INV113F7F13</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>INV8FF98ED3</t>
+          <t>INV8D0FE195</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>INV06A3BA2F</t>
+          <t>INVB4F69F67</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>INV7DBF897A</t>
+          <t>INV40051434</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>INV2C720DA4</t>
+          <t>INV97CD4496</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>INVCA9E7143</t>
+          <t>INV6C4630CE</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>INV919DDCDD</t>
+          <t>INVED66C568</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>INV8B96FC7C</t>
+          <t>INV4A19261B</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>INVFE38839D</t>
+          <t>INVEEF59BBE</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>INV0BF07B94</t>
+          <t>INV137D8E64</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>INVD6387214</t>
+          <t>INVFFE19C57</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>INV8E359611</t>
+          <t>INV1E29E21D</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>INV0F82077D</t>
+          <t>INV27C63B19</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>INVE82DAE13</t>
+          <t>INV222C2E44</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>INVAE6BA747</t>
+          <t>INV366F1E76</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>INV18A71236</t>
+          <t>INVCA0924BD</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>INV4FFBEFFA</t>
+          <t>INVEA4F429F</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>INV3B7380F6</t>
+          <t>INVDAE338BD</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>INV9EB840C2</t>
+          <t>INV0DF51F88</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>INVDC74B87D</t>
+          <t>INV9101A4BC</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>INV230189D8</t>
+          <t>INVA2EBE9FA</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>INV4AC8DBC6</t>
+          <t>INVBF8106BC</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>INV6D1573F4</t>
+          <t>INV5A814B1E</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>INV31A39055</t>
+          <t>INVFF29BDE2</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>INVA2F0AFA4</t>
+          <t>INVABE70170</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>INVFD6BC8F0</t>
+          <t>INVA26925AA</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>INV5F25FAB6</t>
+          <t>INVC27DD3D4</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>INVD60B2EF5</t>
+          <t>INVE3A0C559</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>INVA2C7442C</t>
+          <t>INV5614FF3C</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>INVA7A8164E</t>
+          <t>INV8F1BBD15</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>INV1A210A64</t>
+          <t>INV86502562</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>INV54A1EB46</t>
+          <t>INV31BE277F</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>INV1D6018C5</t>
+          <t>INVF8F9BE00</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>INVC201A504</t>
+          <t>INV693F3D76</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>INV073596C7</t>
+          <t>INV02CB96F2</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>INV0010B036</t>
+          <t>INVDA31467B</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>INV9F1462E9</t>
+          <t>INV3F57B201</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>INV5A59C56C</t>
+          <t>INV90051B53</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>INV3E6CBE1F</t>
+          <t>INV622A1975</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>INV7F8BC4F7</t>
+          <t>INV338D16DE</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>INVF6ED7DB7</t>
+          <t>INVFBE7F6CA</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>INV3CB9B0D6</t>
+          <t>INVCF79A6F1</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>INV0ECB56E5</t>
+          <t>INV2A4F046C</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>INVF30F37E1</t>
+          <t>INVB7ED57C5</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>INVF27EE85D</t>
+          <t>INV4F5A5AAF</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>INVC82B1ED0</t>
+          <t>INVBCB0B71B</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>INVAA1E000D</t>
+          <t>INVF171E4C4</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>INV499A5CBB</t>
+          <t>INV098A63CD</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>INV4CF1D942</t>
+          <t>INV6CA447E2</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>INV4FD9BEB0</t>
+          <t>INVCE9CAE98</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>INVE8E2ECC2</t>
+          <t>INVD3E55BA4</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>INV6EDFF6F1</t>
+          <t>INVD0C83583</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>INV39EA5A64</t>
+          <t>INV3771A4B0</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>INV9B1F87B8</t>
+          <t>INV01255A97</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>INV597AD1E7</t>
+          <t>INVCFECB226</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>INVC7C3F6F1</t>
+          <t>INVBD2201B9</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>INVC9D4183F</t>
+          <t>INV60EAA87E</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>INVDD3A5B36</t>
+          <t>INVBF34DE2E</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>INVE6AAD01D</t>
+          <t>INV96A1DBB6</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>INVD5D9BB27</t>
+          <t>INV99A0A1FC</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>INVAC6ACD1D</t>
+          <t>INV6916BE1A</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>INV2B91985D</t>
+          <t>INV0751494B</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>INV7AB0BC18</t>
+          <t>INVEEB03F47</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>INV8952803A</t>
+          <t>INVDD61AC68</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>INVFEACF3CC</t>
+          <t>INV9C62CFD0</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>INV6AC234D0</t>
+          <t>INVA2854DD2</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>INVB62CF01B</t>
+          <t>INV346DC8BC</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>INV4BD8F3DC</t>
+          <t>INV55046DFE</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>INVFCFBBD55</t>
+          <t>INV04078BD1</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>INV2B48F765</t>
+          <t>INV486998D1</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>INVE9E002C5</t>
+          <t>INV723C789D</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>INV4A9C1F60</t>
+          <t>INVFA4C600F</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>INV888E7434</t>
+          <t>INVA0BA28B6</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>INV74CBC10D</t>
+          <t>INV0EA2F6C1</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>INVF6E6B039</t>
+          <t>INV9448FDB2</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>INV1417B611</t>
+          <t>INV98BE84D1</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>INV27B3CAC3</t>
+          <t>INVC3F6C14D</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>INVC3FC5E86</t>
+          <t>INVB9FB0C3A</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>INV5C769FC9</t>
+          <t>INVA332580C</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>INVC0438052</t>
+          <t>INVBFF43A25</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>INVADFFEA8F</t>
+          <t>INVC89C41B8</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>INV1AEDF10F</t>
+          <t>INVD0E058B5</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>INVF6DBC497</t>
+          <t>INVB389A4BC</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>INV0B7C14D6</t>
+          <t>INVFE23D378</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>INVD73DE87B</t>
+          <t>INV218A0D80</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>INV1C701665</t>
+          <t>INVA1375A59</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>INV3DDDDFA6</t>
+          <t>INVA2F2DF6E</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>INV483407ED</t>
+          <t>INV1A1EA909</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>INV438B7070</t>
+          <t>INV46648042</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>INV4A93D71B</t>
+          <t>INV8BF6BA53</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>INVC48F82E7</t>
+          <t>INV44E79195</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>INV3889FEF3</t>
+          <t>INVB6FBED5C</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>INV5AC32607</t>
+          <t>INVF8A0B8A8</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>INV376B1C23</t>
+          <t>INV67C244C5</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>INV4809CDCC</t>
+          <t>INV6A9DA779</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>INV677D922F</t>
+          <t>INV603BB146</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>INVE61D653F</t>
+          <t>INV2EC2238A</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>INV2C7B7233</t>
+          <t>INV255EA0C2</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>INV5DF01E5E</t>
+          <t>INVB1B858BF</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>INVE5F388BD</t>
+          <t>INVDA2ADFBB</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>INV042FA59C</t>
+          <t>INV0C725EFA</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>INVB763C44B</t>
+          <t>INV1FCCC9F9</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>INV3A9DFB8D</t>
+          <t>INV1AE0C1C6</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>INVEC67C99A</t>
+          <t>INV39FBF519</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>INV21D953AA</t>
+          <t>INVB849C914</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>INV90AD4283</t>
+          <t>INVCC1BBC20</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>INVEB1A8B1E</t>
+          <t>INVC43FDD31</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>INVC07A5A50</t>
+          <t>INVD8704539</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>INV948408CC</t>
+          <t>INV3D128575</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>INV9F0BD25B</t>
+          <t>INV0124D368</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>INV8D6E61AA</t>
+          <t>INVF4362B5A</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>INV4A57298E</t>
+          <t>INV595A7885</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>INVE8302241</t>
+          <t>INV4EB7777F</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>INVD421FEAA</t>
+          <t>INVF8EEF1B8</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>INVDDA019DD</t>
+          <t>INV0C8C568B</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>INVBB77B62D</t>
+          <t>INV9E32F0CA</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>INVFFC295DD</t>
+          <t>INVDDFA9714</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>INVB8AEF237</t>
+          <t>INV45413601</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>INV9EB8F0A1</t>
+          <t>INV4495456C</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>INVC3C06B94</t>
+          <t>INVF081DEA1</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>INV4263BF90</t>
+          <t>INV40FDF3A9</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>INV6D014F38</t>
+          <t>INV6E302237</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>INV16CF4C83</t>
+          <t>INVBC540193</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>INV69171FB0</t>
+          <t>INVDBA21D3F</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>INV7A401BCD</t>
+          <t>INV0BF57055</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>INVE21C2075</t>
+          <t>INV95A73E21</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>INV5CB36C62</t>
+          <t>INV80B4F8D6</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>INV3B643BDD</t>
+          <t>INV9A14ACF0</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>INVE3FEA44A</t>
+          <t>INV1B5799C8</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>INV6291F787</t>
+          <t>INV933B9A84</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>INV0CB875C1</t>
+          <t>INVE05D7C96</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>INV273FBCB5</t>
+          <t>INVC2F78AAD</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>INVF8E65F08</t>
+          <t>INV71A90E60</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>INV7F5EA05A</t>
+          <t>INV07625063</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>INV9BBD4659</t>
+          <t>INVE7FE514F</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>INVE1919C96</t>
+          <t>INV652B7993</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>INVD5842686</t>
+          <t>INV6A6EE053</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>INV18C4D190</t>
+          <t>INV1024DCEB</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>INVEBB8170C</t>
+          <t>INVBCEC1D25</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>INVFCD8EAD9</t>
+          <t>INV6840FC98</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>INV98972037</t>
+          <t>INV12756FC7</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>INVE03137D2</t>
+          <t>INVFC0FF898</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>INV695441EC</t>
+          <t>INV9D43419C</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>INVDC663D84</t>
+          <t>INV73D3EC52</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>INV8F8F3746</t>
+          <t>INV04ADD66E</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>INV3CAAB524</t>
+          <t>INV6469A7DA</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>INV7975B054</t>
+          <t>INV440EBF6D</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>INV9CC17D74</t>
+          <t>INVFDAD94C3</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>INV0DA3E906</t>
+          <t>INVA49796C6</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>INV5812936D</t>
+          <t>INVE31EC5DC</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>INVE4A73C4D</t>
+          <t>INV01FFB95A</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>INV2A54676E</t>
+          <t>INVA891BD8D</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>INV05557EFE</t>
+          <t>INV6B66C940</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>INVACD0644C</t>
+          <t>INVB3DA6FD4</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>INV6686215C</t>
+          <t>INVC811A792</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>INVB856FE68</t>
+          <t>INVCD3BC468</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>INV2A1E7D64</t>
+          <t>INV022261C0</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>INVEEB623C0</t>
+          <t>INV1F01E01D</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>INV54C54BFE</t>
+          <t>INV03D7E9FF</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>INV83A6C958</t>
+          <t>INVB63B6FA1</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>INVB02F2E4F</t>
+          <t>INV6AF5F78D</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>INV68C348DD</t>
+          <t>INV29CF5B2A</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>INV415C57E7</t>
+          <t>INVA82EABCF</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>INVD01BBB40</t>
+          <t>INV98F3EBB3</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>INV3A3427B7</t>
+          <t>INV923EC3D6</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>INVF854CFA5</t>
+          <t>INV98A0B4DC</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>INVE2884358</t>
+          <t>INV97B50B5F</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>INVF46BF5E8</t>
+          <t>INVDAACC047</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>INV122DDEB7</t>
+          <t>INVA8F12909</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>INVCDC9CDA8</t>
+          <t>INV80687B03</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>INVA878F22F</t>
+          <t>INV2A4FB5D2</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>INVE9C3F206</t>
+          <t>INV1555828D</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>INV88EA150C</t>
+          <t>INVBE25E355</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>INVCEAA9D9A</t>
+          <t>INVDB6F2DA7</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>INVF8A1E5AC</t>
+          <t>INV96D4A853</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>INV1CBC7D27</t>
+          <t>INVA5C7B0C0</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>INV1A82F121</t>
+          <t>INVEC939AA8</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>INVB5FEB59F</t>
+          <t>INV1E34E218</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>INV4810A1DC</t>
+          <t>INV4BE81BD9</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>INVC552F64C</t>
+          <t>INV7B1544E8</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>INV023991B4</t>
+          <t>INV2A97176B</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>INVD4D4A04A</t>
+          <t>INV2FF53FE8</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>INVDB061C3B</t>
+          <t>INVC22CCB88</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>INVCB8EE218</t>
+          <t>INVB64334E0</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>INVA680C030</t>
+          <t>INVDD215DB9</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>INVF0083FE0</t>
+          <t>INV70C9825A</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>INV99907A36</t>
+          <t>INV9FFFD5E8</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>INVAE0FF2B7</t>
+          <t>INVA1563A45</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>INV8F04D876</t>
+          <t>INV254D6B3E</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>INV41F06DEF</t>
+          <t>INV2DA285DE</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>INV0E57FF31</t>
+          <t>INV2D39A75B</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>INV1215EC82</t>
+          <t>INVCF81F0EA</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>INV2751383F</t>
+          <t>INV71DD67B0</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>INVE79B7870</t>
+          <t>INVEB6A49FE</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>INV9743D3E7</t>
+          <t>INV103158B3</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>INV6CFE9D6C</t>
+          <t>INVA47B73A1</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>INVE52FC162</t>
+          <t>INV191FB8F7</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>INV3178F73A</t>
+          <t>INVDC35A760</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>INVC3CB6EC8</t>
+          <t>INV5FB6BBCC</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>INV005F5F4C</t>
+          <t>INV492E9DE7</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>INVE1549730</t>
+          <t>INV52276BAC</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>INV4988465E</t>
+          <t>INV075A2A32</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>INVE2F3357A</t>
+          <t>INV3B532279</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>INVA24265BE</t>
+          <t>INVCB654126</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>INV373A7E53</t>
+          <t>INVFAE7A427</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>INV926024C5</t>
+          <t>INV6DB6F32C</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>INVA6750E85</t>
+          <t>INVE004BA8C</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>INVAFA41B55</t>
+          <t>INVD7CF5261</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>INVC5620F97</t>
+          <t>INV608E68D4</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>INV218286B0</t>
+          <t>INVFC2C0225</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>INVD5C5B446</t>
+          <t>INVA4FAA779</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>INV32852839</t>
+          <t>INVF49240FD</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>INV0743F061</t>
+          <t>INVA32DA9C0</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>INV67C81FF6</t>
+          <t>INV2F2F1D80</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>INVBD8B24F1</t>
+          <t>INVD95CD14D</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>INV095A12CB</t>
+          <t>INVFD6EA62B</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>INVC0919004</t>
+          <t>INV2848800B</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>INV274E484E</t>
+          <t>INVA096CE39</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>INV79F701D1</t>
+          <t>INVA556A3B0</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>INV5E962BC5</t>
+          <t>INV0D330FC0</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>INV7B94B283</t>
+          <t>INVBB718280</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>INV708420A1</t>
+          <t>INV323D0A8B</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>INVAAB56460</t>
+          <t>INVC0C92AF6</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>INVFF5A154C</t>
+          <t>INV5BAFE18D</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>INV57798F71</t>
+          <t>INV7EB6C0A3</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>INV5979BE22</t>
+          <t>INV0364E753</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>INV31014650</t>
+          <t>INVFA7D1B34</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>INVE4E802E3</t>
+          <t>INVAA16ECC7</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>INVE75C95DE</t>
+          <t>INVE57D8772</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>INV2305837F</t>
+          <t>INVE1A50380</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>INVD572A705</t>
+          <t>INVF172CFF9</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>INV868BE5D7</t>
+          <t>INV58DCC1CB</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>INVAC2482EB</t>
+          <t>INVDFF01919</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>INV0AAE689A</t>
+          <t>INV5B6D3C6E</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>INV33DBC2B6</t>
+          <t>INVF7811A84</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>INVE41B950F</t>
+          <t>INV0B490712</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>INVD53621EF</t>
+          <t>INVC2A94C99</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>INVD08CB75B</t>
+          <t>INVDC7B088E</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>INV6BD96950</t>
+          <t>INVF7C57A34</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>INV13A9D5EF</t>
+          <t>INVD001E055</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>INV71F7754D</t>
+          <t>INVB66F0038</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>INVC3C28FED</t>
+          <t>INVB00C0D46</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>INVD205BD72</t>
+          <t>INV41DDABF7</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>INVDA4A728A</t>
+          <t>INV6659E5AF</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>INV2E481B91</t>
+          <t>INV4B2D7CEA</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>INV0A4BFD98</t>
+          <t>INV037B054E</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>INV7A056993</t>
+          <t>INV0CC2931A</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>INV51DB04AF</t>
+          <t>INVB86DB448</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>INV87C92A0A</t>
+          <t>INV2F35C717</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>INVEA27140D</t>
+          <t>INV99C9279D</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>INVF2F4F2BF</t>
+          <t>INV7F3184D4</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>INV36576537</t>
+          <t>INVE835F3C5</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>INVBE05A91A</t>
+          <t>INV5AB64BEF</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>INV0CFB3141</t>
+          <t>INV0C3FFDB9</t>
         </is>
       </c>
     </row>
